--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1074276.38948118</v>
+        <v>1019324.500197084</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013174</v>
+        <v>408938.3872013175</v>
       </c>
     </row>
     <row r="8">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>134.7549293585491</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.0134895436313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>14.83845714444454</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>96.91289937729499</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>80.84345120350706</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>211.8662302997449</v>
@@ -1514,10 +1514,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>50.00010435294848</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>8.916258666856974</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>210.5518240523784</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
@@ -1675,7 +1675,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>260.559436625823</v>
       </c>
     </row>
     <row r="15">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.329915919761465</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3.329915919761022</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886886</v>
       </c>
       <c r="S15" t="n">
         <v>177.283526739121</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>77.5201282494384</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>7.226885210985606</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>256.0741648396712</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
         <v>417.3985592667085</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>337.4034507406665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>32.96647199457852</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>148.8995851529776</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>211.8662302997449</v>
@@ -1985,13 +1985,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>75.61813689207855</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>221.9194554082425</v>
+        <v>131.0804113283488</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>195.0638407369318</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>146.9998357108741</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>93.02781727106931</v>
       </c>
       <c r="U21" t="n">
-        <v>140.4182286814479</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.93456886964942</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.61813689207872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>140.249134155772</v>
+        <v>131.3727998529062</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2399,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>61.81939123930416</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1773944157285</v>
+        <v>98.4745014107949</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>7.226885210985775</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
-        <v>7.226885210985831</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
@@ -2572,7 +2572,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
-        <v>98.43984862294289</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>173.9558865751806</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.059245581462</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>139.8851963399927</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>77.52012824943846</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.58429473553586</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>52.42857711587121</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>316.1300360602087</v>
+        <v>249.2860788611572</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -2888,10 +2888,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>221.8402941963075</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>14.75087300099005</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>7.226885210985831</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>75.61813689207857</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>175.4388322041202</v>
       </c>
       <c r="E32" t="n">
-        <v>146.3268229419396</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>417.3985592667085</v>
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>3.329915919761908</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>192.5311106981788</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6213336334641</v>
+        <v>129.4825785166958</v>
       </c>
       <c r="V34" t="n">
-        <v>8.916258666857072</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.05401578610953</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>328.6798195995827</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>90.22595344863024</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>148.3992028897912</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>131.0804113283488</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>7.226885210985775</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>169.8679212068078</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>71.19645448689521</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,10 +3590,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3635,16 +3635,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>193.1121439046141</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>132.6372430215719</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.39631948615289</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>16.93456886964942</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>46.54111843337746</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>126.6095889514853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>158.3452839591853</v>
       </c>
       <c r="T42" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>218.9858112083707</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>73.35340349906456</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>7.226885210985775</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>179.845503396693</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>98.43984862294289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>61.81939123930349</v>
       </c>
       <c r="H45" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S45" t="n">
         <v>177.283526739121</v>
@@ -4115,13 +4115,13 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>91.6418017051523</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>7.226885210986056</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>75.61813689207857</v>
       </c>
     </row>
   </sheetData>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.31465285444516</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="C11" t="n">
-        <v>34.31465285444516</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="D11" t="n">
-        <v>34.31465285444516</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="E11" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F11" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G11" t="n">
         <v>34.31465285444516</v>
@@ -5041,25 +5041,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193755</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389726</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292787</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N11" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O11" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P11" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q11" t="n">
         <v>1715.732642722258</v>
@@ -5068,25 +5068,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S11" t="n">
-        <v>1519.054059427092</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T11" t="n">
-        <v>1300.7066125121</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U11" t="n">
-        <v>1048.145630292934</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V11" t="n">
-        <v>1048.145630292934</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W11" t="n">
-        <v>706.8360708729679</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X11" t="n">
-        <v>343.4191877470021</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.31465285444516</v>
+        <v>1715.732642722258</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>482.8268917365241</v>
+        <v>304.5262490036889</v>
       </c>
       <c r="C12" t="n">
-        <v>482.8268917365241</v>
+        <v>304.5262490036889</v>
       </c>
       <c r="D12" t="n">
-        <v>482.8268917365241</v>
+        <v>289.5379084537449</v>
       </c>
       <c r="E12" t="n">
-        <v>482.8268917365241</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="F12" t="n">
-        <v>384.9350741837009</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="G12" t="n">
-        <v>235.4660406069408</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H12" t="n">
         <v>115.9747045751594</v>
@@ -5123,49 +5123,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K12" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L12" t="n">
-        <v>478.319605488546</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M12" t="n">
-        <v>853.2112150416076</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N12" t="n">
-        <v>1256.444979541619</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O12" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q12" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R12" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S12" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T12" t="n">
-        <v>1234.878304775052</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="U12" t="n">
-        <v>995.3051791025987</v>
+        <v>1262.153223817739</v>
       </c>
       <c r="V12" t="n">
-        <v>752.2254610062328</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W12" t="n">
-        <v>482.8268917365241</v>
+        <v>749.6749364516648</v>
       </c>
       <c r="X12" t="n">
-        <v>482.8268917365241</v>
+        <v>530.1669420683612</v>
       </c>
       <c r="Y12" t="n">
-        <v>482.8268917365241</v>
+        <v>304.5262490036889</v>
       </c>
     </row>
     <row r="13">
@@ -5202,7 +5202,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514571</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L13" t="n">
         <v>105.4471208306432</v>
@@ -5220,25 +5220,25 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S13" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T13" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U13" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="V13" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="W13" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="X13" t="n">
         <v>34.31465285444516</v>
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="C14" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="D14" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="E14" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="F14" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G14" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H14" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I14" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602993</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389716</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292776</v>
+        <v>856.6460009292773</v>
       </c>
       <c r="N14" t="n">
         <v>1186.279026157782</v>
@@ -5299,31 +5299,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q14" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R14" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S14" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="T14" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="U14" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="V14" t="n">
-        <v>1503.05403256834</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="W14" t="n">
-        <v>1161.744473148374</v>
+        <v>1374.423083302291</v>
       </c>
       <c r="X14" t="n">
-        <v>798.327590022408</v>
+        <v>1011.006200176325</v>
       </c>
       <c r="Y14" t="n">
-        <v>412.180552225994</v>
+        <v>747.8148500492312</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.31465285444516</v>
+        <v>37.67820428854719</v>
       </c>
       <c r="C15" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D15" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E15" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F15" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G15" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H15" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I15" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J15" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K15" t="n">
-        <v>215.5091216889814</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="L15" t="n">
-        <v>498.4142537443597</v>
+        <v>317.2197849098233</v>
       </c>
       <c r="M15" t="n">
-        <v>873.3058632974213</v>
+        <v>692.1113944628848</v>
       </c>
       <c r="N15" t="n">
-        <v>1276.539627797432</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O15" t="n">
-        <v>1395.95310056761</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P15" t="n">
-        <v>1625.19346494006</v>
+        <v>1637.71855738224</v>
       </c>
       <c r="Q15" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R15" t="n">
         <v>1627.958867440572</v>
       </c>
       <c r="S15" t="n">
-        <v>1448.884598007117</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T15" t="n">
         <v>1234.878304775051</v>
       </c>
       <c r="U15" t="n">
-        <v>995.3051791025982</v>
+        <v>995.3051791025978</v>
       </c>
       <c r="V15" t="n">
-        <v>752.2254610062323</v>
+        <v>752.2254610062319</v>
       </c>
       <c r="W15" t="n">
-        <v>482.8268917365236</v>
+        <v>482.8268917365232</v>
       </c>
       <c r="X15" t="n">
-        <v>263.31889735322</v>
+        <v>263.3188973532195</v>
       </c>
       <c r="Y15" t="n">
-        <v>37.67820428854765</v>
+        <v>37.67820428854719</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C16" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D16" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E16" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F16" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G16" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H16" t="n">
-        <v>256.5545155321046</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J16" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K16" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514567</v>
       </c>
       <c r="L16" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306431</v>
       </c>
       <c r="M16" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098954</v>
       </c>
       <c r="P16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="R16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="S16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="T16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="U16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="V16" t="n">
-        <v>334.8576753800222</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W16" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="X16" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="Y16" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444515</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>997.0551769459959</v>
+        <v>1121.862101083125</v>
       </c>
       <c r="C17" t="n">
-        <v>643.3122502983405</v>
+        <v>1121.862101083125</v>
       </c>
       <c r="D17" t="n">
-        <v>643.3122502983405</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E17" t="n">
-        <v>643.3122502983405</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F17" t="n">
-        <v>643.3122502983405</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G17" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H17" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I17" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K17" t="n">
-        <v>253.8975067193754</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L17" t="n">
-        <v>525.5283691389723</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N17" t="n">
         <v>1186.279026157783</v>
@@ -5533,7 +5533,7 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P17" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q17" t="n">
         <v>1715.732642722258</v>
@@ -5548,19 +5548,19 @@
         <v>1715.732642722258</v>
       </c>
       <c r="U17" t="n">
-        <v>1715.732642722258</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V17" t="n">
-        <v>1715.732642722258</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="W17" t="n">
-        <v>1715.732642722258</v>
+        <v>1121.862101083125</v>
       </c>
       <c r="X17" t="n">
-        <v>1715.732642722258</v>
+        <v>1121.862101083125</v>
       </c>
       <c r="Y17" t="n">
-        <v>1374.921076317545</v>
+        <v>1121.862101083125</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>752.2254610062328</v>
+        <v>345.4983904600575</v>
       </c>
       <c r="C18" t="n">
-        <v>752.2254610062328</v>
+        <v>345.4983904600575</v>
       </c>
       <c r="D18" t="n">
-        <v>718.9259943450423</v>
+        <v>184.7182742210892</v>
       </c>
       <c r="E18" t="n">
-        <v>545.3627904664568</v>
+        <v>184.7182742210892</v>
       </c>
       <c r="F18" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G18" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I18" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K18" t="n">
-        <v>195.4144734331679</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L18" t="n">
-        <v>478.319605488546</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M18" t="n">
-        <v>770.1254798029032</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N18" t="n">
         <v>1173.359244302914</v>
@@ -5618,28 +5618,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T18" t="n">
-        <v>1234.878304775052</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="U18" t="n">
-        <v>995.3051791025987</v>
+        <v>1262.153223817739</v>
       </c>
       <c r="V18" t="n">
-        <v>752.2254610062328</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W18" t="n">
-        <v>752.2254610062328</v>
+        <v>749.6749364516648</v>
       </c>
       <c r="X18" t="n">
-        <v>752.2254610062328</v>
+        <v>749.6749364516648</v>
       </c>
       <c r="Y18" t="n">
-        <v>752.2254610062328</v>
+        <v>524.0342433869926</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.6966093110902</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="C19" t="n">
-        <v>110.6966093110902</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D19" t="n">
-        <v>110.6966093110902</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E19" t="n">
         <v>34.31465285444516</v>
@@ -5676,7 +5676,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>42.23041924514571</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L19" t="n">
         <v>105.4471208306432</v>
@@ -5715,10 +5715,10 @@
         <v>334.857675380022</v>
       </c>
       <c r="X19" t="n">
-        <v>110.6966093110902</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="Y19" t="n">
-        <v>110.6966093110902</v>
+        <v>202.4532194928011</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>388.0575795021006</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="C20" t="n">
-        <v>34.31465285444516</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="D20" t="n">
-        <v>34.31465285444516</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="E20" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F20" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G20" t="n">
         <v>34.31465285444516</v>
@@ -5752,19 +5752,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602962</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193748</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L20" t="n">
         <v>525.5283691389717</v>
       </c>
       <c r="M20" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O20" t="n">
         <v>1460.632785841149</v>
@@ -5776,28 +5776,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S20" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T20" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U20" t="n">
-        <v>1610.227176505315</v>
+        <v>1518.698460159701</v>
       </c>
       <c r="V20" t="n">
-        <v>1286.106182960717</v>
+        <v>1194.577466615103</v>
       </c>
       <c r="W20" t="n">
-        <v>1137.62150042448</v>
+        <v>1194.577466615103</v>
       </c>
       <c r="X20" t="n">
-        <v>774.2046172985147</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="Y20" t="n">
-        <v>388.0575795021006</v>
+        <v>831.1605834891368</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>223.7269271214814</v>
+        <v>397.2901310000669</v>
       </c>
       <c r="C21" t="n">
-        <v>34.31465285444516</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="D21" t="n">
-        <v>34.31465285444516</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E21" t="n">
         <v>34.31465285444516</v>
@@ -5834,13 +5834,13 @@
         <v>54.40930111025867</v>
       </c>
       <c r="K21" t="n">
-        <v>54.40930111025867</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L21" t="n">
-        <v>337.3144331656368</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M21" t="n">
-        <v>712.2060427186984</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N21" t="n">
         <v>1082.820066520716</v>
@@ -5855,28 +5855,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R21" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S21" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T21" t="n">
-        <v>1501.726349490192</v>
+        <v>1354.917105814117</v>
       </c>
       <c r="U21" t="n">
-        <v>1359.889754862467</v>
+        <v>1354.917105814117</v>
       </c>
       <c r="V21" t="n">
-        <v>1116.810036766101</v>
+        <v>1111.837387717751</v>
       </c>
       <c r="W21" t="n">
-        <v>847.4114674963926</v>
+        <v>842.4388184480429</v>
       </c>
       <c r="X21" t="n">
-        <v>627.9034731130889</v>
+        <v>622.9308240647392</v>
       </c>
       <c r="Y21" t="n">
-        <v>402.2627800484165</v>
+        <v>397.2901310000669</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1415.189620196681</v>
+        <v>317.752050259164</v>
       </c>
       <c r="C22" t="n">
-        <v>1415.189620196681</v>
+        <v>317.752050259164</v>
       </c>
       <c r="D22" t="n">
-        <v>1415.189620196681</v>
+        <v>317.752050259164</v>
       </c>
       <c r="E22" t="n">
-        <v>1415.189620196681</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K22" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L22" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M22" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N22" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X22" t="n">
-        <v>1491.571576653326</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y22" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1715.732642722258</v>
+        <v>942.3720836633275</v>
       </c>
       <c r="C23" t="n">
-        <v>1715.732642722258</v>
+        <v>588.6291570156721</v>
       </c>
       <c r="D23" t="n">
-        <v>1574.066850645721</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E23" t="n">
-        <v>1198.835626341038</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F23" t="n">
-        <v>791.5636570076908</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G23" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H23" t="n">
         <v>34.31465285444516</v>
@@ -5989,16 +5989,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602939</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193745</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389716</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292774</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N23" t="n">
         <v>1186.279026157782</v>
@@ -6007,7 +6007,7 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P23" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q23" t="n">
         <v>1715.732642722258</v>
@@ -6016,25 +6016,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S23" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T23" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U23" t="n">
-        <v>1715.732642722258</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="V23" t="n">
-        <v>1715.732642722258</v>
+        <v>942.3720836633275</v>
       </c>
       <c r="W23" t="n">
-        <v>1715.732642722258</v>
+        <v>942.3720836633275</v>
       </c>
       <c r="X23" t="n">
-        <v>1715.732642722258</v>
+        <v>942.3720836633275</v>
       </c>
       <c r="Y23" t="n">
-        <v>1715.732642722258</v>
+        <v>942.3720836633275</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>257.1861986718517</v>
+        <v>397.2901310000669</v>
       </c>
       <c r="C24" t="n">
-        <v>257.1861986718517</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="D24" t="n">
-        <v>257.1861986718517</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E24" t="n">
-        <v>257.1861986718517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F24" t="n">
-        <v>96.75848238909583</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G24" t="n">
         <v>34.31465285444516</v>
@@ -6071,19 +6071,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K24" t="n">
-        <v>112.3287381944635</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L24" t="n">
-        <v>395.2338702498417</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M24" t="n">
-        <v>770.1254798029032</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N24" t="n">
-        <v>1173.359244302914</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O24" t="n">
-        <v>1486.492278349808</v>
+        <v>1569.578013588512</v>
       </c>
       <c r="P24" t="n">
         <v>1715.732642722258</v>
@@ -6092,28 +6092,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S24" t="n">
         <v>1448.884598007117</v>
       </c>
       <c r="T24" t="n">
-        <v>1234.878304775052</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U24" t="n">
-        <v>995.3051791025987</v>
+        <v>1135.409111430814</v>
       </c>
       <c r="V24" t="n">
-        <v>752.2254610062328</v>
+        <v>892.3293933344479</v>
       </c>
       <c r="W24" t="n">
-        <v>482.8268917365241</v>
+        <v>622.9308240647392</v>
       </c>
       <c r="X24" t="n">
-        <v>482.8268917365241</v>
+        <v>622.9308240647392</v>
       </c>
       <c r="Y24" t="n">
-        <v>257.1861986718517</v>
+        <v>397.2901310000669</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>1423.105386587382</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L25" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M25" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N25" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.732642722258</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.732642722258</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W25" t="n">
-        <v>1422.489504248182</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1337.866743350709</v>
+        <v>1540.019625979651</v>
       </c>
       <c r="C26" t="n">
-        <v>1337.866743350709</v>
+        <v>1540.019625979651</v>
       </c>
       <c r="D26" t="n">
-        <v>1337.866743350709</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="E26" t="n">
-        <v>962.6355190460259</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="F26" t="n">
-        <v>555.3635497126789</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G26" t="n">
-        <v>133.7488433826703</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H26" t="n">
         <v>34.31465285444516</v>
@@ -6226,19 +6226,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K26" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O26" t="n">
         <v>1460.632785841149</v>
@@ -6262,16 +6262,16 @@
         <v>1715.732642722258</v>
       </c>
       <c r="V26" t="n">
-        <v>1715.732642722258</v>
+        <v>1540.019625979651</v>
       </c>
       <c r="W26" t="n">
-        <v>1715.732642722258</v>
+        <v>1540.019625979651</v>
       </c>
       <c r="X26" t="n">
-        <v>1715.732642722258</v>
+        <v>1540.019625979651</v>
       </c>
       <c r="Y26" t="n">
-        <v>1715.732642722258</v>
+        <v>1540.019625979651</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1069.118384851047</v>
+        <v>223.7269271214814</v>
       </c>
       <c r="C27" t="n">
-        <v>879.7061105840106</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D27" t="n">
-        <v>718.9259943450423</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E27" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F27" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G27" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I27" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K27" t="n">
-        <v>54.40930111025867</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L27" t="n">
-        <v>337.3144331656368</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M27" t="n">
-        <v>712.2060427186984</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N27" t="n">
-        <v>1115.43980721871</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O27" t="n">
-        <v>1395.953100567611</v>
+        <v>1569.578013588512</v>
       </c>
       <c r="P27" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q27" t="n">
         <v>1715.732642722258</v>
@@ -6332,25 +6332,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S27" t="n">
-        <v>1715.732642722258</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T27" t="n">
-        <v>1715.732642722258</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U27" t="n">
-        <v>1715.732642722258</v>
+        <v>1181.353901935532</v>
       </c>
       <c r="V27" t="n">
-        <v>1715.732642722258</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W27" t="n">
-        <v>1446.33407345255</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X27" t="n">
-        <v>1446.33407345255</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y27" t="n">
-        <v>1220.693380387877</v>
+        <v>223.7269271214814</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C28" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D28" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E28" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F28" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G28" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H28" t="n">
-        <v>1637.429482874341</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I28" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>1423.105386587382</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L28" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M28" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N28" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O28" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S28" t="n">
-        <v>1715.732642722258</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="T28" t="n">
-        <v>1715.732642722258</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="U28" t="n">
-        <v>1715.732642722258</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="V28" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W28" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X28" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y28" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1337.866743350709</v>
+        <v>286.1187729162201</v>
       </c>
       <c r="C29" t="n">
-        <v>1018.543474603023</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D29" t="n">
-        <v>1018.543474603023</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E29" t="n">
-        <v>643.3122502983404</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F29" t="n">
-        <v>643.3122502983404</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G29" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H29" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K29" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N29" t="n">
         <v>1186.279026157783</v>
@@ -6481,34 +6481,34 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P29" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q29" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S29" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T29" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U29" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="V29" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="W29" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="X29" t="n">
-        <v>1715.732642722258</v>
+        <v>1050.131710084183</v>
       </c>
       <c r="Y29" t="n">
-        <v>1715.732642722258</v>
+        <v>663.9846722877689</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.9669970985512</v>
+        <v>734.7750647334931</v>
       </c>
       <c r="C30" t="n">
-        <v>678.5547228315149</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="D30" t="n">
-        <v>517.7746065925467</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="E30" t="n">
-        <v>344.2114027139611</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F30" t="n">
-        <v>183.7836864312052</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G30" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H30" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I30" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K30" t="n">
-        <v>54.40930111025867</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L30" t="n">
-        <v>337.3144331656368</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M30" t="n">
-        <v>712.2060427186984</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N30" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O30" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P30" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q30" t="n">
         <v>1715.732642722258</v>
@@ -6572,22 +6572,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T30" t="n">
-        <v>1715.732642722258</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="U30" t="n">
-        <v>1715.732642722258</v>
+        <v>1262.153223817739</v>
       </c>
       <c r="V30" t="n">
-        <v>1715.732642722258</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W30" t="n">
-        <v>1491.651537473462</v>
+        <v>749.6749364516648</v>
       </c>
       <c r="X30" t="n">
-        <v>1272.143543090159</v>
+        <v>734.7750647334931</v>
       </c>
       <c r="Y30" t="n">
-        <v>1046.502850025486</v>
+        <v>734.7750647334931</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L31" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M31" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N31" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O31" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W31" t="n">
-        <v>1422.489504248182</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X31" t="n">
-        <v>1415.189620196681</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="Y31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1011.006200176326</v>
+        <v>633.1403008047772</v>
       </c>
       <c r="C32" t="n">
-        <v>1011.006200176326</v>
+        <v>633.1403008047772</v>
       </c>
       <c r="D32" t="n">
-        <v>1011.006200176326</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E32" t="n">
-        <v>863.2013285178008</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F32" t="n">
         <v>455.9293591844538</v>
@@ -6700,22 +6700,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K32" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N32" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O32" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P32" t="n">
         <v>1650.639799716936</v>
@@ -6739,7 +6739,7 @@
         <v>1715.732642722258</v>
       </c>
       <c r="W32" t="n">
-        <v>1374.423083302291</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="X32" t="n">
         <v>1011.006200176326</v>
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>718.4979635217912</v>
+        <v>37.6782042885481</v>
       </c>
       <c r="C33" t="n">
-        <v>529.0856892547549</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D33" t="n">
-        <v>368.3055730157866</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E33" t="n">
-        <v>194.7423691372011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F33" t="n">
         <v>34.31465285444516</v>
@@ -6779,16 +6779,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K33" t="n">
-        <v>112.3287381944631</v>
+        <v>112.3287381944635</v>
       </c>
       <c r="L33" t="n">
-        <v>395.2338702498412</v>
+        <v>395.2338702498417</v>
       </c>
       <c r="M33" t="n">
-        <v>770.1254798029028</v>
+        <v>770.1254798029032</v>
       </c>
       <c r="N33" t="n">
         <v>1173.359244302914</v>
@@ -6803,28 +6803,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S33" t="n">
-        <v>1536.658373288802</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T33" t="n">
-        <v>1536.658373288802</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U33" t="n">
-        <v>1536.658373288802</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="V33" t="n">
-        <v>1536.658373288802</v>
+        <v>752.2254610062328</v>
       </c>
       <c r="W33" t="n">
-        <v>1342.182503896702</v>
+        <v>482.8268917365241</v>
       </c>
       <c r="X33" t="n">
-        <v>1122.674509513399</v>
+        <v>263.3188973532204</v>
       </c>
       <c r="Y33" t="n">
-        <v>897.0338164487264</v>
+        <v>37.6782042885481</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1415.189620196681</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="C34" t="n">
-        <v>1415.189620196681</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="D34" t="n">
-        <v>1415.189620196681</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="E34" t="n">
-        <v>1415.189620196681</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="F34" t="n">
-        <v>1415.189620196681</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="G34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K34" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L34" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M34" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N34" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O34" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U34" t="n">
-        <v>1424.195942082395</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="V34" t="n">
-        <v>1415.189620196681</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="W34" t="n">
-        <v>1415.189620196681</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="X34" t="n">
-        <v>1415.189620196681</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="Y34" t="n">
-        <v>1415.189620196681</v>
+        <v>204.0671920298242</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C35" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D35" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E35" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F35" t="n">
-        <v>221.6975439683318</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G35" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H35" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I35" t="n">
         <v>34.31465285444516</v>
@@ -6943,13 +6943,13 @@
         <v>253.897506719375</v>
       </c>
       <c r="L35" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389717</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O35" t="n">
         <v>1460.632785841149</v>
@@ -6970,19 +6970,19 @@
         <v>1195.201146295157</v>
       </c>
       <c r="U35" t="n">
-        <v>942.6401640759908</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="V35" t="n">
-        <v>926.423986514264</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="W35" t="n">
-        <v>585.1144270942975</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="X35" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="Y35" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>397.2901310000669</v>
+        <v>125.4519795702333</v>
       </c>
       <c r="C36" t="n">
-        <v>207.8778567330307</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D36" t="n">
-        <v>207.8778567330307</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E36" t="n">
         <v>34.31465285444516</v>
@@ -7019,13 +7019,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K36" t="n">
-        <v>34.31465285444516</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L36" t="n">
-        <v>317.2197849098233</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M36" t="n">
-        <v>692.1113944628848</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N36" t="n">
         <v>1082.820066520716</v>
@@ -7040,28 +7040,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S36" t="n">
-        <v>1627.958867440572</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T36" t="n">
-        <v>1413.952574208507</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U36" t="n">
-        <v>1413.952574208507</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V36" t="n">
-        <v>1170.872856112141</v>
+        <v>839.9992362879179</v>
       </c>
       <c r="W36" t="n">
-        <v>1020.974671374978</v>
+        <v>570.6006670182093</v>
       </c>
       <c r="X36" t="n">
-        <v>801.4666769916744</v>
+        <v>351.0926726349056</v>
       </c>
       <c r="Y36" t="n">
-        <v>575.825983927002</v>
+        <v>125.4519795702333</v>
       </c>
     </row>
     <row r="37">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="C37" t="n">
         <v>34.31465285444516</v>
@@ -7119,28 +7119,28 @@
         <v>334.857675380022</v>
       </c>
       <c r="R37" t="n">
-        <v>334.857675380022</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="S37" t="n">
-        <v>334.857675380022</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="T37" t="n">
-        <v>334.857675380022</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="U37" t="n">
-        <v>334.857675380022</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="V37" t="n">
-        <v>327.5577913285213</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="W37" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="X37" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1329.585604925844</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="C38" t="n">
-        <v>1158.001846131089</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="D38" t="n">
-        <v>816.8178464924752</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="E38" t="n">
-        <v>441.5866221877922</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F38" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G38" t="n">
         <v>34.31465285444516</v>
@@ -7174,25 +7174,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887602939</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193745</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389716</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292774</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O38" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P38" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q38" t="n">
         <v>1715.732642722258</v>
@@ -7201,25 +7201,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.732642722258</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.732642722258</v>
+        <v>1194.577466615103</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.732642722258</v>
+        <v>1194.577466615103</v>
       </c>
       <c r="X38" t="n">
-        <v>1715.732642722258</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="Y38" t="n">
-        <v>1329.585604925844</v>
+        <v>831.1605834891368</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>384.5070433604496</v>
+        <v>718.4979635217912</v>
       </c>
       <c r="C39" t="n">
-        <v>195.0947690934134</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D39" t="n">
-        <v>34.31465285444516</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E39" t="n">
-        <v>34.31465285444516</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F39" t="n">
         <v>34.31465285444516</v>
@@ -7256,13 +7256,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K39" t="n">
-        <v>112.3287381944631</v>
+        <v>112.3287381944635</v>
       </c>
       <c r="L39" t="n">
-        <v>395.2338702498412</v>
+        <v>395.2338702498417</v>
       </c>
       <c r="M39" t="n">
-        <v>770.1254798029028</v>
+        <v>770.1254798029032</v>
       </c>
       <c r="N39" t="n">
         <v>1173.359244302914</v>
@@ -7283,22 +7283,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T39" t="n">
-        <v>1520.669871101436</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U39" t="n">
-        <v>1520.669871101436</v>
+        <v>1476.159517049805</v>
       </c>
       <c r="V39" t="n">
-        <v>1277.59015300507</v>
+        <v>1476.159517049805</v>
       </c>
       <c r="W39" t="n">
-        <v>1008.191583735361</v>
+        <v>1342.182503896702</v>
       </c>
       <c r="X39" t="n">
-        <v>788.6835893520572</v>
+        <v>1122.674509513399</v>
       </c>
       <c r="Y39" t="n">
-        <v>563.0428962873848</v>
+        <v>897.0338164487264</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="C40" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="D40" t="n">
-        <v>1415.189620196681</v>
+        <v>317.752050259164</v>
       </c>
       <c r="E40" t="n">
-        <v>1415.189620196681</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y40" t="n">
-        <v>1496.398023718047</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1104.472803445397</v>
+        <v>750.7298767977416</v>
       </c>
       <c r="C41" t="n">
         <v>750.7298767977416</v>
@@ -7411,19 +7411,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K41" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N41" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O41" t="n">
         <v>1460.632785841149</v>
@@ -7435,28 +7435,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1610.227176505315</v>
+        <v>1668.721411981472</v>
       </c>
       <c r="S41" t="n">
-        <v>1610.227176505315</v>
+        <v>1668.721411981472</v>
       </c>
       <c r="T41" t="n">
-        <v>1610.227176505315</v>
+        <v>1668.721411981472</v>
       </c>
       <c r="U41" t="n">
-        <v>1610.227176505315</v>
+        <v>1416.160429762306</v>
       </c>
       <c r="V41" t="n">
-        <v>1610.227176505315</v>
+        <v>1092.039436217708</v>
       </c>
       <c r="W41" t="n">
-        <v>1610.227176505315</v>
+        <v>750.7298767977416</v>
       </c>
       <c r="X41" t="n">
-        <v>1610.227176505315</v>
+        <v>750.7298767977416</v>
       </c>
       <c r="Y41" t="n">
-        <v>1482.338702816946</v>
+        <v>750.7298767977416</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>305.3869788421956</v>
+        <v>384.1546434042374</v>
       </c>
       <c r="C42" t="n">
-        <v>115.9747045751594</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="D42" t="n">
-        <v>115.9747045751594</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="E42" t="n">
-        <v>115.9747045751594</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F42" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G42" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I42" t="n">
         <v>34.31465285444516</v>
@@ -7493,49 +7493,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K42" t="n">
-        <v>195.4144734331679</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L42" t="n">
-        <v>395.2338702498412</v>
+        <v>317.2197849098233</v>
       </c>
       <c r="M42" t="n">
-        <v>770.1254798029028</v>
+        <v>692.1113944628848</v>
       </c>
       <c r="N42" t="n">
-        <v>1173.359244302914</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.492278349808</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P42" t="n">
-        <v>1715.732642722258</v>
+        <v>1637.71855738224</v>
       </c>
       <c r="Q42" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1448.884598007117</v>
+        <v>1555.787911450353</v>
       </c>
       <c r="T42" t="n">
-        <v>1234.878304775051</v>
+        <v>1341.781618218288</v>
       </c>
       <c r="U42" t="n">
-        <v>995.3051791025982</v>
+        <v>1341.781618218288</v>
       </c>
       <c r="V42" t="n">
-        <v>752.2254610062323</v>
+        <v>1098.701900121922</v>
       </c>
       <c r="W42" t="n">
-        <v>531.0276719068679</v>
+        <v>829.3033308522133</v>
       </c>
       <c r="X42" t="n">
-        <v>531.0276719068679</v>
+        <v>609.7953364689097</v>
       </c>
       <c r="Y42" t="n">
-        <v>305.3869788421956</v>
+        <v>384.1546434042374</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C43" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D43" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E43" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F43" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
         <v>34.31465285444516</v>
@@ -7596,25 +7596,25 @@
         <v>334.857675380022</v>
       </c>
       <c r="S43" t="n">
-        <v>108.4089998231972</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T43" t="n">
-        <v>108.4089998231972</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U43" t="n">
-        <v>108.4089998231972</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V43" t="n">
-        <v>108.4089998231972</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W43" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X43" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1238.432552822484</v>
+        <v>215.9767774975694</v>
       </c>
       <c r="C44" t="n">
-        <v>1238.432552822484</v>
+        <v>215.9767774975694</v>
       </c>
       <c r="D44" t="n">
-        <v>1238.432552822484</v>
+        <v>215.9767774975694</v>
       </c>
       <c r="E44" t="n">
-        <v>863.2013285178008</v>
+        <v>215.9767774975694</v>
       </c>
       <c r="F44" t="n">
-        <v>455.9293591844538</v>
+        <v>215.9767774975694</v>
       </c>
       <c r="G44" t="n">
         <v>34.31465285444516</v>
@@ -7648,10 +7648,10 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602976</v>
       </c>
       <c r="K44" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L44" t="n">
         <v>525.5283691389718</v>
@@ -7678,22 +7678,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1715.732642722258</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U44" t="n">
-        <v>1715.732642722258</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="V44" t="n">
-        <v>1715.732642722258</v>
+        <v>920.7032200435018</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.732642722258</v>
+        <v>579.3936606235352</v>
       </c>
       <c r="X44" t="n">
-        <v>1715.732642722258</v>
+        <v>215.9767774975694</v>
       </c>
       <c r="Y44" t="n">
-        <v>1616.298452194033</v>
+        <v>215.9767774975694</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>545.3627904664568</v>
+        <v>257.1861986718511</v>
       </c>
       <c r="C45" t="n">
-        <v>545.3627904664568</v>
+        <v>257.1861986718511</v>
       </c>
       <c r="D45" t="n">
-        <v>545.3627904664568</v>
+        <v>257.1861986718511</v>
       </c>
       <c r="E45" t="n">
-        <v>545.3627904664568</v>
+        <v>257.1861986718511</v>
       </c>
       <c r="F45" t="n">
-        <v>384.9350741837009</v>
+        <v>96.75848238909515</v>
       </c>
       <c r="G45" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I45" t="n">
         <v>34.31465285444516</v>
@@ -7733,10 +7733,10 @@
         <v>195.4144734331679</v>
       </c>
       <c r="L45" t="n">
-        <v>478.319605488546</v>
+        <v>304.6946924676434</v>
       </c>
       <c r="M45" t="n">
-        <v>853.2112150416076</v>
+        <v>679.5863020207049</v>
       </c>
       <c r="N45" t="n">
         <v>1082.820066520716</v>
@@ -7751,28 +7751,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S45" t="n">
-        <v>1536.658373288802</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T45" t="n">
-        <v>1322.652080056737</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U45" t="n">
-        <v>1083.078954384284</v>
+        <v>995.305179102598</v>
       </c>
       <c r="V45" t="n">
-        <v>1083.078954384284</v>
+        <v>752.2254610062321</v>
       </c>
       <c r="W45" t="n">
-        <v>990.5114779144328</v>
+        <v>482.8268917365234</v>
       </c>
       <c r="X45" t="n">
-        <v>771.0034835311292</v>
+        <v>482.8268917365234</v>
       </c>
       <c r="Y45" t="n">
-        <v>545.3627904664568</v>
+        <v>257.1861986718511</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L46" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M46" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N46" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O46" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W46" t="n">
-        <v>1422.489504248182</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X46" t="n">
-        <v>1415.189620196681</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="Y46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>61.4093663997632</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8783,13 +8783,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O12" t="n">
-        <v>79.84408287020796</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9005,10 +9005,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976321</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491727</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9020,13 +9020,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
-        <v>59.54645836938515</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>123.478473925376</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9242,7 +9242,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
         <v>171.373473584151</v>
@@ -9251,10 +9251,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>217.8518962203996</v>
+        <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>310.6138585746227</v>
+        <v>206.3912489842002</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9482,7 +9482,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9491,7 +9491,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>277.6646255463469</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9719,7 +9719,7 @@
         <v>61.4093663997632</v>
       </c>
       <c r="K24" t="n">
-        <v>87.44848849455065</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9734,7 +9734,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890787</v>
       </c>
       <c r="Q24" t="n">
         <v>44.67636752131757</v>
@@ -9953,10 +9953,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K27" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9968,13 +9968,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
-        <v>222.2735498630453</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890787</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K30" t="n">
-        <v>8.64638209049167</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10205,13 +10205,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
-        <v>222.2735498630448</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K33" t="n">
-        <v>67.15086399372845</v>
+        <v>87.44848849455063</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10667,7 +10667,7 @@
         <v>61.4093663997632</v>
       </c>
       <c r="K36" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10676,7 +10676,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
-        <v>297.9622500471686</v>
+        <v>135.2351585535093</v>
       </c>
       <c r="O36" t="n">
         <v>255.2227828913207</v>
@@ -10904,7 +10904,7 @@
         <v>61.4093663997632</v>
       </c>
       <c r="K39" t="n">
-        <v>87.44848849455019</v>
+        <v>87.44848849455063</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -11080,7 +11080,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.5801139476183</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11141,10 +11141,10 @@
         <v>61.4093663997632</v>
       </c>
       <c r="K42" t="n">
-        <v>171.373473584151</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L42" t="n">
-        <v>156.3795586670407</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M42" t="n">
         <v>301.77688131</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.67636752131757</v>
+        <v>123.478473925376</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315037</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11381,13 +11381,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
-        <v>240.3045437566416</v>
+        <v>64.92584373552776</v>
       </c>
       <c r="M45" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>135.2351585535088</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
@@ -23260,19 +23260,19 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
-        <v>350.2054973811788</v>
+        <v>215.4505680226297</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>332.2779548450047</v>
@@ -23308,25 +23308,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>76.27207787481859</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="12">
@@ -23342,19 +23342,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>144.333857932134</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>61.91053974263335</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
-        <v>174.1840844483081</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T13" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23481,7 +23481,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X13" t="n">
-        <v>221.9194554082425</v>
+        <v>213.0031967413856</v>
       </c>
       <c r="Y13" t="n">
         <v>217.1412728141684</v>
@@ -23512,7 +23512,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>185.5090622027478</v>
@@ -23554,7 +23554,7 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>110.3279595567736</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>121.7261307926269</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>173.4205784779043</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>184.1882356046049</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -23594,7 +23594,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350704</v>
+        <v>80.84345120350707</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H16" t="n">
-        <v>82.56286578368633</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706154</v>
       </c>
       <c r="R16" t="n">
         <v>174.3941919203111</v>
@@ -23712,10 +23712,10 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V16" t="n">
-        <v>245.1090151844499</v>
+        <v>237.8821299734643</v>
       </c>
       <c r="W16" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>221.9194554082425</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>81.69799480255608</v>
       </c>
       <c r="E17" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.88211667778342</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>126.205843082</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>9.923853966950702</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,13 +23892,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E19" t="n">
-        <v>66.05800432014644</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F19" t="n">
         <v>138.9268822184467</v>
@@ -23955,7 +23955,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>90.83904407989377</v>
       </c>
       <c r="Y19" t="n">
         <v>217.1412728141684</v>
@@ -23971,19 +23971,19 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>332.2779548450047</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
         <v>194.7117974622146</v>
@@ -24025,19 +24025,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0353723969745</v>
+        <v>54.97153166004276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>190.8966281148928</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24056,7 +24056,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>118.8384130286756</v>
       </c>
       <c r="U21" t="n">
-        <v>96.75916573428054</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.6169206649681</v>
+        <v>160.6823517953187</v>
       </c>
       <c r="C22" t="n">
         <v>166.4571809719723</v>
@@ -24135,10 +24135,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E22" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>168.0550137836253</v>
@@ -24192,10 +24192,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
-        <v>141.5231359220897</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>197.5230254864553</v>
+        <v>206.3993597893211</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
         <v>185.5090622027478</v>
@@ -24256,16 +24256,16 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -24287,19 +24287,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>86.15495200168832</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
         <v>118.2964226714636</v>
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>138.7028930049336</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6213336334641</v>
+        <v>281.3944484224784</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6925701972567</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
         <v>217.1412728141684</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>233.8381062220618</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>185.5090622027478</v>
@@ -24502,7 +24502,7 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>146.9238970339714</v>
       </c>
       <c r="W26" t="n">
         <v>337.8964638257669</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26.69124881620371</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,22 +24572,22 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1773944157285</v>
+        <v>97.2921980757358</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24618,13 +24618,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H28" t="n">
-        <v>82.56286578368628</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S28" t="n">
-        <v>224.1841888012565</v>
+        <v>171.7556116853853</v>
       </c>
       <c r="T28" t="n">
         <v>221.0023972007068</v>
@@ -24660,7 +24660,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V28" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>290.3107070893353</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>34.07546132097013</v>
+        <v>100.9194185200217</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.1639724458418</v>
@@ -24745,10 +24745,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,22 +24812,22 @@
         <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>44.86428938070412</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>202.5620414384805</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -24900,13 +24900,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6925701972567</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>217.1412728141684</v>
+        <v>141.5231359220899</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>162.3333274381071</v>
       </c>
       <c r="E32" t="n">
-        <v>225.1520891196966</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>184.188235604604</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>147.9743432409925</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>74.17347287883274</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>160.0829940331247</v>
@@ -25131,10 +25131,10 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>159.1387551167683</v>
       </c>
       <c r="V34" t="n">
-        <v>236.1927565175928</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
         <v>290.3107070893353</v>
@@ -25165,16 +25165,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>304.8257678230425</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>9.216644226184201</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
         <v>382.2855674184499</v>
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>97.29219807573568</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>118.3053806872203</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>145.1826502507107</v>
@@ -25359,7 +25359,7 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R37" t="n">
-        <v>174.3941919203111</v>
+        <v>43.31378059196231</v>
       </c>
       <c r="S37" t="n">
         <v>224.1841888012565</v>
@@ -25371,10 +25371,10 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V37" t="n">
-        <v>237.8821299734641</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -25393,19 +25393,19 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>180.337576174371</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>332.2779548450047</v>
@@ -25441,25 +25441,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>249.6833291222568</v>
       </c>
       <c r="W38" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -25478,10 +25478,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>147.9743432409925</v>
@@ -25523,16 +25523,16 @@
         <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>18.75408639513078</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>134.0673405554397</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.2206011788152</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
-        <v>145.1826502507107</v>
+        <v>128.2480813810613</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>168.0550137836253</v>
@@ -25617,7 +25617,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>57.90929312139603</v>
       </c>
       <c r="S41" t="n">
         <v>194.7117974622146</v>
@@ -25684,19 +25684,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>255.6759784669646</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -25718,7 +25718,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>147.9743432409925</v>
@@ -25727,7 +25727,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>18.93824277993568</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>47.71877236864086</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I43" t="n">
-        <v>72.07976581628247</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J43" t="n">
         <v>74.58429473553586</v>
@@ -25836,19 +25836,19 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T43" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6213336334641</v>
+        <v>281.3944484224784</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
@@ -25873,13 +25873,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>237.5530558700155</v>
       </c>
       <c r="H44" t="n">
         <v>332.2779548450047</v>
@@ -25918,22 +25918,22 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>283.845718795507</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>86.154952001689</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26003,13 +26003,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>175.0627818718593</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X46" t="n">
-        <v>214.6925701972565</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.1412728141684</v>
+        <v>141.5231359220899</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>616658.7268016773</v>
+        <v>616658.7268016771</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>616658.7268016773</v>
+        <v>616658.7268016771</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>616658.7268016771</v>
+        <v>616658.7268016769</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>616658.7268016773</v>
+        <v>616658.7268016771</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>616658.7268016773</v>
+        <v>616658.7268016771</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>616658.7268016773</v>
+        <v>616658.7268016771</v>
       </c>
     </row>
   </sheetData>
@@ -26316,40 +26316,40 @@
         <v>507110.8972264642</v>
       </c>
       <c r="C2" t="n">
-        <v>507110.8972264642</v>
+        <v>507110.8972264644</v>
       </c>
       <c r="D2" t="n">
-        <v>507110.8972264643</v>
+        <v>507110.8972264644</v>
       </c>
       <c r="E2" t="n">
+        <v>288031.4438952031</v>
+      </c>
+      <c r="F2" t="n">
         <v>288031.443895203</v>
-      </c>
-      <c r="F2" t="n">
-        <v>288031.4438952029</v>
       </c>
       <c r="G2" t="n">
         <v>288031.4438952031</v>
       </c>
       <c r="H2" t="n">
-        <v>288031.4438952029</v>
+        <v>288031.4438952031</v>
       </c>
       <c r="I2" t="n">
-        <v>288031.4438952029</v>
+        <v>288031.4438952032</v>
       </c>
       <c r="J2" t="n">
-        <v>288031.4438952032</v>
+        <v>288031.4438952031</v>
       </c>
       <c r="K2" t="n">
         <v>288031.443895203</v>
       </c>
       <c r="L2" t="n">
-        <v>288031.4438952029</v>
+        <v>288031.4438952031</v>
       </c>
       <c r="M2" t="n">
-        <v>288031.4438952031</v>
+        <v>288031.443895203</v>
       </c>
       <c r="N2" t="n">
-        <v>288031.4438952029</v>
+        <v>288031.443895203</v>
       </c>
       <c r="O2" t="n">
         <v>288031.4438952031</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>106891.8593742394</v>
+        <v>106891.8593742393</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26478,34 +26478,34 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="F5" t="n">
+        <v>36091.33751189044</v>
+      </c>
+      <c r="G5" t="n">
         <v>36091.33751189045</v>
-      </c>
-      <c r="G5" t="n">
-        <v>36091.33751189046</v>
       </c>
       <c r="H5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="I5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="K5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="L5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="M5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="N5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="O5" t="n">
         <v>36091.33751189045</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64403.17417324899</v>
+        <v>64358.51033119707</v>
       </c>
       <c r="C6" t="n">
-        <v>64403.17417324899</v>
+        <v>64358.51033119718</v>
       </c>
       <c r="D6" t="n">
-        <v>64403.17417324905</v>
+        <v>64358.51033119718</v>
       </c>
       <c r="E6" t="n">
-        <v>-273507.5145941441</v>
+        <v>-283077.3720592942</v>
       </c>
       <c r="F6" t="n">
-        <v>223545.6372233483</v>
+        <v>213975.7797581982</v>
       </c>
       <c r="G6" t="n">
-        <v>223545.6372233485</v>
+        <v>213975.7797581982</v>
       </c>
       <c r="H6" t="n">
-        <v>223545.6372233483</v>
+        <v>213975.7797581982</v>
       </c>
       <c r="I6" t="n">
-        <v>223545.6372233483</v>
+        <v>213975.7797581983</v>
       </c>
       <c r="J6" t="n">
-        <v>223545.6372233485</v>
+        <v>213975.7797581982</v>
       </c>
       <c r="K6" t="n">
-        <v>223545.6372233484</v>
+        <v>213975.7797581982</v>
       </c>
       <c r="L6" t="n">
-        <v>223545.6372233483</v>
+        <v>213975.7797581982</v>
       </c>
       <c r="M6" t="n">
-        <v>116653.7778491091</v>
+        <v>107083.9203839588</v>
       </c>
       <c r="N6" t="n">
-        <v>223545.6372233483</v>
+        <v>213975.7797581982</v>
       </c>
       <c r="O6" t="n">
-        <v>223545.6372233484</v>
+        <v>213975.7797581983</v>
       </c>
       <c r="P6" t="n">
-        <v>223545.6372233484</v>
+        <v>213975.7797581982</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="G3" t="n">
         <v>459.2752909409236</v>
@@ -26798,37 +26798,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="F4" t="n">
+        <v>428.9331606805644</v>
+      </c>
+      <c r="G4" t="n">
         <v>428.9331606805645</v>
-      </c>
-      <c r="G4" t="n">
-        <v>428.9331606805646</v>
       </c>
       <c r="H4" t="n">
         <v>428.9331606805645</v>
       </c>
       <c r="I4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="J4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="K4" t="n">
         <v>428.9331606805645</v>
       </c>
       <c r="L4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="M4" t="n">
         <v>428.9331606805645</v>
       </c>
       <c r="N4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="O4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="P4" t="n">
         <v>428.9331606805644</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805643</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31992,43 +31992,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H14" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J14" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K14" t="n">
-        <v>234.8604594573931</v>
+        <v>234.8604594573929</v>
       </c>
       <c r="L14" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N14" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148395</v>
       </c>
       <c r="O14" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692327</v>
       </c>
       <c r="R14" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584443</v>
+        <v>42.0733093158444</v>
       </c>
       <c r="T14" t="n">
-        <v>8.082321954146304</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993449</v>
       </c>
       <c r="H15" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433148</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01236824420992</v>
+        <v>34.0123682442099</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K15" t="n">
-        <v>159.5201734582263</v>
+        <v>159.5201734582262</v>
       </c>
       <c r="L15" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M15" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N15" t="n">
-        <v>256.9298629953381</v>
+        <v>256.9298629953379</v>
       </c>
       <c r="O15" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P15" t="n">
-        <v>188.640826575339</v>
+        <v>188.6408265753389</v>
       </c>
       <c r="Q15" t="n">
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943131</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S15" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742533</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196979</v>
       </c>
       <c r="H16" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315138</v>
       </c>
       <c r="I16" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340264</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368852</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M16" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N16" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O16" t="n">
         <v>117.0624954680243</v>
       </c>
       <c r="P16" t="n">
-        <v>100.1671880439024</v>
+        <v>100.1671880439023</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207944</v>
       </c>
       <c r="R16" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186568</v>
       </c>
       <c r="S16" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T16" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184163</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L12" t="n">
         <v>285.7627596518971</v>
@@ -35503,13 +35503,13 @@
         <v>407.306832828294</v>
       </c>
       <c r="O12" t="n">
-        <v>140.9172939656488</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P12" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K14" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286314</v>
       </c>
       <c r="L14" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M14" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N14" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459643</v>
       </c>
       <c r="O14" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P14" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002261</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>285.7627596518972</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M15" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N15" t="n">
-        <v>407.3068328282941</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O15" t="n">
-        <v>120.6196694648261</v>
+        <v>316.2959939867615</v>
       </c>
       <c r="P15" t="n">
-        <v>231.5559236085354</v>
+        <v>231.5559236085353</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151266</v>
+        <v>78.80210640405838</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970218</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676512</v>
       </c>
       <c r="M16" t="n">
-        <v>76.00912912692043</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793116</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186792</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144089</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K18" t="n">
         <v>162.7270914936593</v>
@@ -35971,10 +35971,10 @@
         <v>285.7627596518971</v>
       </c>
       <c r="M18" t="n">
-        <v>294.7534083983406</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N18" t="n">
-        <v>407.306832828294</v>
+        <v>303.0842232378716</v>
       </c>
       <c r="O18" t="n">
         <v>316.2959939867616</v>
@@ -36202,7 +36202,7 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L21" t="n">
         <v>285.7627596518971</v>
@@ -36211,7 +36211,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N21" t="n">
-        <v>374.3575998000182</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O21" t="n">
         <v>316.2959939867616</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>78.80210640405896</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L24" t="n">
         <v>285.7627596518971</v>
@@ -36454,7 +36454,7 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P24" t="n">
-        <v>231.5559236085354</v>
+        <v>147.6309385189348</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518971</v>
@@ -36688,13 +36688,13 @@
         <v>407.306832828294</v>
       </c>
       <c r="O27" t="n">
-        <v>283.3467609584861</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P27" t="n">
-        <v>231.5559236085354</v>
+        <v>147.6309385189348</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518971</v>
@@ -36925,13 +36925,13 @@
         <v>407.306832828294</v>
       </c>
       <c r="O30" t="n">
-        <v>283.3467609584857</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P30" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>58.50448190323679</v>
+        <v>78.80210640405896</v>
       </c>
       <c r="L33" t="n">
         <v>285.7627596518971</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L36" t="n">
         <v>285.7627596518971</v>
@@ -37396,7 +37396,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N36" t="n">
-        <v>394.65522430084</v>
+        <v>231.9281328071806</v>
       </c>
       <c r="O36" t="n">
         <v>316.2959939867616</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>78.80210640405852</v>
+        <v>78.80210640405896</v>
       </c>
       <c r="L39" t="n">
         <v>285.7627596518971</v>
@@ -37800,7 +37800,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>201.8377745622963</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M42" t="n">
         <v>378.6783934879409</v>
@@ -37879,7 +37879,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>78.80210640405838</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119657</v>
       </c>
       <c r="K44" t="n">
         <v>176.3970685286315</v>
@@ -38101,13 +38101,13 @@
         <v>162.7270914936593</v>
       </c>
       <c r="L45" t="n">
-        <v>285.7627596518971</v>
+        <v>110.3840596307834</v>
       </c>
       <c r="M45" t="n">
         <v>378.6783934879409</v>
       </c>
       <c r="N45" t="n">
-        <v>231.9281328071802</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O45" t="n">
         <v>316.2959939867616</v>
